--- a/model_data/fundamentals.xlsx
+++ b/model_data/fundamentals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcetter/election_sim_jan24/essential_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcetter/research/election_sim_jan24/essential_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1BD08C-3AD4-6145-979A-3FA863E3958C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB5FDDA-A213-9542-A566-3EE77D16BA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="660" windowWidth="16920" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="560" windowWidth="16920" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamentals_output" sheetId="1" r:id="rId1"/>
@@ -238,12 +238,21 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:
-rdi change in the 12-month period ending oct of election yr</t>
+          <t xml:space="preserve">Microsoft Office User:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>rdi change in the 12-month period ending oct of election yr</t>
         </r>
       </text>
     </comment>
@@ -252,12 +261,21 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:
-rdi change in election yr january1-january1</t>
+          <t xml:space="preserve">Microsoft Office User:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>rdi change in election yr january1-january1</t>
         </r>
       </text>
     </comment>
@@ -517,12 +535,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="L25" authorId="0" shapeId="0" xr:uid="{D1A09ECC-DEEC-B148-904D-86D3C542522C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Most recent data on "12-month change in CPI", as of 2 November 2024 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA25" authorId="0" shapeId="0" xr:uid="{A257055D-2539-FE44-89DD-9012F9B3BB08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Most recent data as of November 2 2024. Growth rate is the ratio of September 2024 income to September 2023 income. </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="149">
   <si>
     <t>Year</t>
   </si>
@@ -966,6 +1050,9 @@
   </si>
   <si>
     <t>0.945</t>
+  </si>
+  <si>
+    <t>OH</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1127,6 +1214,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2289,15 +2378,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:JK36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="40" width="10.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="41" max="271" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1" max="271" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6655,20 +6742,16 @@
         <v>4</v>
       </c>
       <c r="L25" s="11">
-        <v>5.5E-2</v>
-      </c>
-      <c r="M25" s="11">
-        <v>1.6E-2</v>
-      </c>
-      <c r="N25" s="11">
-        <v>3.7</v>
-      </c>
+        <v>2.4E-2</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
       <c r="O25" s="9"/>
       <c r="P25" s="11">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="11">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="R25" s="9"/>
       <c r="S25" s="11">
@@ -6680,21 +6763,27 @@
         <f>S25-(1-T24)</f>
         <v>-2.9963682879136977E-2</v>
       </c>
-      <c r="V25" s="11"/>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
       <c r="W25" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="11">
         <v>0</v>
       </c>
-      <c r="Y25" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z25" s="10" t="s">
+      <c r="Y25" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
+      <c r="Z25" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA25" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB25" s="20" t="s">
+        <v>148</v>
+      </c>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9">
@@ -6728,13 +6817,10 @@
       <c r="AY25" s="9"/>
       <c r="AZ25" s="9"/>
       <c r="BA25" s="11">
-        <f t="shared" ref="BA25:BB25" si="6">15526/15108</f>
-        <v>1.0276674609478422</v>
-      </c>
-      <c r="BB25" s="11">
-        <f t="shared" si="6"/>
-        <v>1.0276674609478422</v>
-      </c>
+        <f>52278/50955</f>
+        <v>1.0259640859581984</v>
+      </c>
+      <c r="BB25" s="11"/>
       <c r="BC25" s="9"/>
       <c r="BD25" s="9"/>
       <c r="BE25" s="9"/>

--- a/model_data/fundamentals.xlsx
+++ b/model_data/fundamentals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcetter/research/election_sim_jan24/essential_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB5FDDA-A213-9542-A566-3EE77D16BA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398FDD72-7CB6-0E40-8302-436CF5EBFC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="560" windowWidth="16920" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3940" yWindow="1740" windowWidth="16920" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamentals_output" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="150">
   <si>
     <t>Year</t>
   </si>
@@ -1053,6 +1053,9 @@
   </si>
   <si>
     <t>OH</t>
+  </si>
+  <si>
+    <t>Harris</t>
   </si>
 </sst>
 </file>
@@ -2378,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:JK36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6727,8 +6730,12 @@
       <c r="A25" s="8">
         <v>2024</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="D25" s="10" t="s">
         <v>59</v>
       </c>
